--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3887653.620765629</v>
+        <v>3990451.040833284</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7185555.851897032</v>
+        <v>7151656.121633076</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>162.8008219374155</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>96.97390940101978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>55.67904331004404</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>65.79537822841613</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>77.49483903518113</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>220.9236438058961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>184.5657038752012</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>28.72759225321362</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2876242256666</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>150.8215551988348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>255.1514878040039</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>45.31583743121449</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>91.40260836685113</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.8000472740347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>93.38904885909375</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>149.2479410620343</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>46.52295781333289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>229.319471560892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>189.4027099929742</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652468</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>7.069540131684477</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541836</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>94.59703336213224</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541847</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>163.9493858927454</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>278.7019488598318</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4028,13 +4030,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266638</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>688.0267400319764</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>272.9542898769728</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3227.652377769758</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3021.67463015398</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2768.144153427816</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2768.144153427816</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2768.144153427816</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574645</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>864.6455479292516</v>
+        <v>854.4270278096838</v>
       </c>
       <c r="W4" t="n">
-        <v>864.6455479292516</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="X4" t="n">
-        <v>636.6559970312343</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.8634178877041</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4644,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>506.0459258814798</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V7" t="n">
-        <v>506.0459258814798</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6287558445192</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="X7" t="n">
-        <v>216.6287558445192</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445192</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>2034.604709474942</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1665.64219253453</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1307.37649392778</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.5882413295355</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>510.602336539928</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>95.52988638492445</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>95.52988638492445</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,7 +4816,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3256.628423401427</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3050.65067578565</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2797.120199059486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2466.057311715915</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2466.057311715915</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2466.057311715915</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="V10" t="n">
-        <v>699.120390387711</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="W10" t="n">
-        <v>441.3916148281111</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="X10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,22 +5056,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>827.5914569160692</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>677.4748175037334</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311365</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>435.4253327224017</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.384895601574</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613763</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>216.8470138298251</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,16 +5749,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5780,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249848</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2229.161883810406</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2009.560418833348</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602305</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565344</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>3195.647281583949</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V25" t="n">
-        <v>1456.750023995219</v>
+        <v>3897.172899444212</v>
       </c>
       <c r="W25" t="n">
-        <v>1167.332853958259</v>
+        <v>3607.755729407251</v>
       </c>
       <c r="X25" t="n">
-        <v>939.3433030602413</v>
+        <v>3416.439860727479</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.5507239167111</v>
+        <v>3195.647281583949</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150014</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942646</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580104</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345465</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384008</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2101.509986535919</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7396,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,10 +7681,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>54.01843965608012</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>193.1339494774973</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.77834493961026</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>179.1866975757043</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>22.818171762936</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>36.30694539606296</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>64.34558267474665</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>211.5151132204103</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>88.18825743108258</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>7.821049476759242</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619388.6609627878</v>
+        <v>619388.6609627879</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629810.0385934958</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629810.0385934958</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629810.0385934958</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629810.0385934958</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629810.0385934958</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642827</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.769864285</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642847</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363172</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.466712796727993e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,7 +26435,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26442,22 +26444,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.5553049608</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287553</v>
+        <v>-709233.6605287554</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.0851988372</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988369</v>
+        <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>365784.9120168763</v>
+        <v>365784.912016876</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242319</v>
+        <v>691197.3738242316</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242317</v>
+        <v>691197.3738242316</v>
       </c>
       <c r="H6" t="n">
         <v>691197.3738242316</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.373824232</v>
+        <v>691197.3738242316</v>
       </c>
       <c r="J6" t="n">
         <v>473666.171426954</v>
       </c>
       <c r="K6" t="n">
-        <v>675632.3807117771</v>
+        <v>691197.3738242317</v>
       </c>
       <c r="L6" t="n">
-        <v>695060.0987054077</v>
+        <v>691197.3738242316</v>
       </c>
       <c r="M6" t="n">
-        <v>610005.0707698958</v>
+        <v>606142.3458887199</v>
       </c>
       <c r="N6" t="n">
-        <v>695060.0987054086</v>
+        <v>691197.3738242316</v>
       </c>
       <c r="O6" t="n">
-        <v>695060.0987054084</v>
+        <v>691197.3738242317</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242316</v>
+        <v>691197.3738242314</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>131.8069424499049</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.21385238715605</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>134.0899820213978</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>186.3422650954119</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>277.1882025855018</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194508</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>65.28819439971679</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>34.01894947689357</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.84933751971233</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.90013756250923</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>135.390283006778</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>31.37151053258711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.604209407957034e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32551,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7666854143565</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>216.8572963387063</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597762</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>171.2123056344823</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451919</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990451.040833284</v>
+        <v>3986438.430819293</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>162.8008219374155</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>36.80199454068539</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>65.79537822841613</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>77.49483903518113</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458443</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>58.60774246577412</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.5657038752012</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28.72759225321362</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>145.2400692563854</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>150.8215551988348</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444151</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>45.31583743121449</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F16" t="n">
-        <v>91.40260836685113</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>93.38904885909375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>149.2479410620343</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>189.4027099929742</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>81.07546534818459</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.926382450742</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576156</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.069540131684477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>94.59703336213224</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>163.9493858927454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>151.855586233358</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,19 +3954,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>278.7019488598318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>60.25690685266638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.23793938793</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>694.9722407811798</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>694.9722407811798</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>688.0267400319764</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>272.9542898769728</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424835</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V4" t="n">
-        <v>854.4270278096838</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W4" t="n">
-        <v>565.0098577727232</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X4" t="n">
-        <v>565.0098577727232</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.0098577727232</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213862</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.17643427345</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4646,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>610.2639694321828</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>441.3277865042759</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>441.3277865042759</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>293.4146929218828</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>293.4146929218828</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>125.7118562966017</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>125.7118562966017</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>350.2677975281828</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>350.2677975281828</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>350.2677975281828</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>350.2677975281828</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>610.2639694321828</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474942</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.64219253453</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.37649392778</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>921.5882413295355</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>510.602336539928</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>95.52988638492445</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>95.52988638492445</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4810,7 +4810,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>361.1323506775921</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.2192570951989</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>456.9449278938906</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>456.9449278938906</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>456.9449278938906</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>456.9449278938906</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>456.9449278938906</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168626</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.83088743627</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>827.5914569160692</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>677.4748175037334</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4550657171305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>583.3384263047948</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>435.4253327224017</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.368993063876</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.161883810406</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2009.560418833348</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1720.485192177545</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583949</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243707</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.932614305901</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650099</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444212</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.755729407251</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3416.439860727479</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3195.647281583949</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101821</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>424.993875127789</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,52 +6445,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.509986535919</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1812.434759880117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1557.75027167423</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1522.780413559004</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1233.363243522043</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1005.373692624026</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>784.5811134804959</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7396,31 +7396,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7432,16 +7432,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.1181252153547</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F16" t="n">
-        <v>54.01843965608012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1339494774973</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>31.77834493961026</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>36.30694539606296</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>64.34558267474665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.5151132204103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>88.18825743108258</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>7.821049476759242</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619388.6609627878</v>
+        <v>619388.6609627879</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619388.6609627879</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900059</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.261100762970973e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>5.466712796727993e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26450,10 +26450,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.6960418674</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287554</v>
+        <v>-709233.6605287548</v>
       </c>
       <c r="C6" t="n">
+        <v>619511.0851988373</v>
+      </c>
+      <c r="D6" t="n">
         <v>619511.0851988372</v>
       </c>
-      <c r="D6" t="n">
-        <v>619511.085198837</v>
-      </c>
       <c r="E6" t="n">
-        <v>365784.912016876</v>
+        <v>365437.5327625192</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698753</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698748</v>
       </c>
       <c r="H6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698746</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698748</v>
       </c>
       <c r="J6" t="n">
-        <v>473666.171426954</v>
+        <v>473318.7921725973</v>
       </c>
       <c r="K6" t="n">
-        <v>691197.3738242317</v>
+        <v>690849.994569875</v>
       </c>
       <c r="L6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698747</v>
       </c>
       <c r="M6" t="n">
-        <v>606142.3458887199</v>
+        <v>605794.9666343629</v>
       </c>
       <c r="N6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698747</v>
       </c>
       <c r="O6" t="n">
-        <v>691197.3738242317</v>
+        <v>690849.9945698747</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242314</v>
+        <v>690849.994569875</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>131.8069424499049</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>290.9502639294495</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>16.8441252232751</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>186.3422650954119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>277.1882025855018</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>186.5668494326247</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>37.74467794406397</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.01894947689357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>12.84933751971233</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.1809787665458771</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>135.390283006778</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.233894212857884e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.604209407957034e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31837,31 +31837,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>453.7122424932249</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>216.8572963387063</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685848</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302374</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950826</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>322.3705304098916</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>90.01966967203961</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451919</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>587.2415561174981</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>128.5512458942258</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579301</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>37.76383318075232</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>379.5262112417385</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3986438.430819293</v>
+        <v>3988198.961122077</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>36.80199454068539</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247745</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>312.8700214057324</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.1642512458443</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>344.853429630846</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.2400692563854</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>225.5286766224914</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444151</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457618</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282045</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G28" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4476,22 +4476,22 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>1123.418419219939</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>712.4325144303314</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
         <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4883,40 +4883,40 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.2489900899278</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>511.2489900899278</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.1323506775921</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>213.2192570951989</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201675</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168626</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.83088743627</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6171,25 +6171,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
         <v>753.3092412490405</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>363.7369613277355</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,7 +6551,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>1896.176478190825</v>
@@ -6603,19 +6603,19 @@
         <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,28 +6706,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,13 +6773,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
         <v>577.3880777468471</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6934,55 +6934,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156772</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314358</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M36" t="n">
         <v>1465.200520057987</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913851</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
         <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972543</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.67509321183</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G28" t="n">
-        <v>38.5977558415268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>24.63391537253449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619388.6609627879</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619388.6609627878</v>
+        <v>619388.6609627879</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619388.6609627878</v>
+        <v>619388.6609627879</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.261100762970973e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.572698404634123e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186727</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26441,16 +26441,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287548</v>
+        <v>-709233.6605287554</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988373</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="D6" t="n">
         <v>619511.0851988372</v>
       </c>
       <c r="E6" t="n">
-        <v>365437.5327625192</v>
+        <v>365750.1740914406</v>
       </c>
       <c r="F6" t="n">
-        <v>690849.9945698753</v>
+        <v>691162.6358987957</v>
       </c>
       <c r="G6" t="n">
-        <v>690849.9945698748</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="H6" t="n">
-        <v>690849.9945698746</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="I6" t="n">
-        <v>690849.9945698748</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="J6" t="n">
-        <v>473318.7921725973</v>
+        <v>473631.4335015183</v>
       </c>
       <c r="K6" t="n">
-        <v>690849.994569875</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="L6" t="n">
-        <v>690849.9945698747</v>
+        <v>691162.6358987963</v>
       </c>
       <c r="M6" t="n">
-        <v>605794.9666343629</v>
+        <v>606107.6079632844</v>
       </c>
       <c r="N6" t="n">
-        <v>690849.9945698747</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="O6" t="n">
-        <v>690849.9945698747</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="P6" t="n">
-        <v>690849.994569875</v>
+        <v>691162.6358987963</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.965873005792653e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.965873005792653e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.965873005792653e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.965873005792653e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.965873005792653e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>345.9318471227943</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>290.9502639294495</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>69.06034866652942</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5668494326247</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>66.06829602260746</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1809787665458771</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.180978766545735</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.233894212857884e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>-1.964059489493738e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,25 +33262,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488891</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.3926848685848</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950826</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655557</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.5512458942258</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.76383318075232</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
